--- a/mbs-perturbation/greedy/multinomialNB/smote/greedy-multinomialNB-smote-results.xlsx
+++ b/mbs-perturbation/greedy/multinomialNB/smote/greedy-multinomialNB-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4923664122137404</v>
+        <v>0.405982905982906</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4913419913419913</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4890414762592772</v>
+        <v>0.3918552036199095</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4913419913419914</v>
+        <v>0.3942307692307693</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6864864864864865</v>
+        <v>0.6993464052287581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6493506493506493</v>
+        <v>0.6466346153846154</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6458396426408237</v>
+        <v>0.6403479365527462</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6493506493506495</v>
+        <v>0.6466346153846154</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.7518248175182481</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7337662337662337</v>
+        <v>0.6658653846153846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7192654839713664</v>
+        <v>0.6558402523584204</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7337662337662337</v>
+        <v>0.6658653846153847</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.900709219858156</v>
+        <v>0.4556451612903226</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7444569922830793</v>
+        <v>0.4471153846153846</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7341251221896383</v>
+        <v>0.4419559537140724</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7444569922830793</v>
+        <v>0.4471153846153846</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7248322147651006</v>
+        <v>0.6647727272727273</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6460380199510635</v>
+        <v>0.6394230769230769</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6348683411322809</v>
+        <v>0.6372767857142857</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6460380199510634</v>
+        <v>0.639423076923077</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7465931523789824</v>
+        <v>0.5955144034585924</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6529907773386034</v>
+        <v>0.5586538461538462</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6446280132386774</v>
+        <v>0.5534552263918868</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6529907773386034</v>
+        <v>0.5586538461538462</v>
       </c>
     </row>
   </sheetData>
